--- a/tools/excel/intuitem/doc-pol_new.xlsx
+++ b/tools/excel/intuitem/doc-pol_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/intuitem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ciso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D37534-4DC1-DE42-868D-882B1DFBB7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B9D3A5-D92B-4699-B0E0-179179FCBE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="687">
   <si>
     <t>type</t>
   </si>
@@ -45,9 +45,6 @@
     <t>version</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>locale</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>copyright</t>
-  </si>
-  <si>
-    <t>© intuitem - 2024</t>
   </si>
   <si>
     <t>provider</t>
@@ -612,9 +606,6 @@
     <t>Registre des accès à privilèges</t>
   </si>
   <si>
-    <t>DOC.INCIDENT_REGiSTER</t>
-  </si>
-  <si>
     <t>Security Incident Register</t>
   </si>
   <si>
@@ -775,17 +766,6 @@
   </si>
   <si>
     <t>Information classification and handling policy</t>
-  </si>
-  <si>
-    <t>classification
-protection and handling of information
-Poritection and handling of PII
-clear desk
-clear screen
-Protection of records
-Retention rules
-Use of test information
-Continual improvement</t>
   </si>
   <si>
     <t>A.5.12, A.5.13
@@ -2075,12 +2055,720 @@
   <si>
     <t>L'authentification multifacteur (MFA) améliore la sécurité en exigeant deux facteurs de vérification issus de catégories différentes : ce que vous savez (ex. : un mot de passe), ce que vous possédez (ex. : un jeton ou un smartphone) et ce que vous êtes (ex. : une empreinte digitale ou une reconnaissance faciale)</t>
   </si>
+  <si>
+    <t>name[de]</t>
+  </si>
+  <si>
+    <t>description[de]</t>
+  </si>
+  <si>
+    <t>Übliche Referenzkontrollen</t>
+  </si>
+  <si>
+    <t>Übliche Dokumente, Richtlinien, Verfahren, Schulungen und technischen Kontrollen, die von intuitem empfohlen werden</t>
+  </si>
+  <si>
+    <t>Dokument zur Organisationsübersicht</t>
+  </si>
+  <si>
+    <t>Ziele der Organisation
+Organigramm
+ISMS-Ziele
+Verantwortlichkeiten des CISO
+Managementbewertung des ISMS</t>
+  </si>
+  <si>
+    <t>Interessierte Parteien
+Behörden
+Fach- und Interessengruppen</t>
+  </si>
+  <si>
+    <t>Produkte und Dienstleistungen
+Produkte und Dienstleistungen mit Zertifizierungspflicht
+Standorte
+Organisationssicht
+Sicht der Geschäftsarchitektur
+Sicht der Datenarchitektur
+Sicht der Applikationsarchitektur
+Sicht der Technologiearchitektur
+Netzwerksicht
+Beschreibung des Geltungsbereichs</t>
+  </si>
+  <si>
+    <t>Gesetzliche Anforderungen
+Behördliche bzw. gesetzliche Vorgaben
+Regulatorische Anforderungen
+Vertragliche Anforderungen
+Rechte an geistigem Eigentum
+Arbeitsverträge
+Geheimhaltungsvereinbarungen (NDAs)</t>
+  </si>
+  <si>
+    <t>Dokument zum Kontext der Organisation</t>
+  </si>
+  <si>
+    <t>Dokument zum Geltungsbereich des ISMS</t>
+  </si>
+  <si>
+    <t>Rechtskataster</t>
+  </si>
+  <si>
+    <t>Dokument zur Geltungsbereichserklärung (SoA)</t>
+  </si>
+  <si>
+    <t>Verantwortlichkeitsmatrix für Kontrollen</t>
+  </si>
+  <si>
+    <t>Auditplan-Dokument</t>
+  </si>
+  <si>
+    <t>Kontext der Organisation
+Führung
+Planung
+Unterstützung
+Betrieb
+Leistungsbewertung
+Verbesserung
+Organisatorische Kontrollen
+Personenbezogene Kontrollen
+Physische Kontrollen
+Technologische Kontrollen</t>
+  </si>
+  <si>
+    <t>Kompetenzmatrix</t>
+  </si>
+  <si>
+    <t>Verantwortlichkeitsmatrix</t>
+  </si>
+  <si>
+    <t>RACI für das ISMS</t>
+  </si>
+  <si>
+    <t>Kommunikationsplan-Dokument</t>
+  </si>
+  <si>
+    <t>Risikoregister</t>
+  </si>
+  <si>
+    <t>Risiko-Verantwortlicher
+Auswirkung
+Eintrittswahrscheinlichkeit
+Risikostufe
+Bewertung
+Priorität
+Behandlungsoption
+Minderungsmaßnahmen – empfohlene Sicherheitsmaßnahmen</t>
+  </si>
+  <si>
+    <t>Register für Sicherheitsziele</t>
+  </si>
+  <si>
+    <t>Überprüfung der Risiken
+Überprüfung der Sicherheitsziele
+Überprüfung von Sicherheitsvorfällen
+Überprüfung des Schwachstellenmanagements
+Überprüfung der Nichtkonformitäten</t>
+  </si>
+  <si>
+    <t>Schulungs- und Bewusstseinsregister</t>
+  </si>
+  <si>
+    <t>Dokumentenregister</t>
+  </si>
+  <si>
+    <t>Regeln für Erstellung und Pflege
+Versionskontrolle
+Register
+Kontinuierliche Verbesserung</t>
+  </si>
+  <si>
+    <t>Register für operative Verfahren</t>
+  </si>
+  <si>
+    <t>Protokoll der Nichtkonformitäten</t>
+  </si>
+  <si>
+    <t>Liste der Nichtkonformitäten (Vorfall, Probleme, …)
+Ergriffene Korrekturmaßnahmen</t>
+  </si>
+  <si>
+    <t>Verfahrensregelwerk</t>
+  </si>
+  <si>
+    <t>Asset-Register</t>
+  </si>
+  <si>
+    <t>Lieferantenregister</t>
+  </si>
+  <si>
+    <t>Risikomanagement</t>
+  </si>
+  <si>
+    <t>Plan für Informationssicherheitsbewusstsein und Schulungen</t>
+  </si>
+  <si>
+    <t>Zielsetzung: Sensibilisierung aller Mitarbeitenden sowie gezielte Schulungen für relevante Rollen, um sicheres Verhalten zu fördern, Compliance sicherzustellen und Risiken zu reduzieren.
+Geltungsbereich: Sensibilisierung für alle Mitarbeitenden und Auftragnehmer; zielgerichtete Schulungen für spezifische Teams (z. B. IT, Sicherheit, Zugriffsadministration).
+Rollen und Verantwortlichkeiten: Verantwortung wird IT-, HR- und Sicherheitsteams zugewiesen.
+Schulungsanforderungen: Festlegung verpflichtender Themen (z. B. Zugriffsmanagement, sichere Konfigurationen) und Häufigkeiten (z. B. jährlich, Onboarding).
+Bereitstellungsmethoden: Sensibilisierung über E-Learning und Kampagnen; Schulungen über praxisorientierte Workshops und Simulationen.
+Evaluation: Nachverfolgung der Teilnahmequoten, Quiz-Ergebnisse und Phishing-Testresultate.
+Compliance: Ausrichtung an relevanten Vorschriften (z. B. DSGVO, ISO 27001) und Aufrechterhaltung prüfbereiter Nachweise.
+Kontinuierliche Verbesserung: Aktualisierung auf Basis von Feedback und neuen Bedrohungen.</t>
+  </si>
+  <si>
+    <t>Sicherheitsnachweisplan</t>
+  </si>
+  <si>
+    <t>Ein von Lieferanten bereitgestelltes Dokument, das Sicherheitsmaßnahmen, die Einhaltung von Standards (z. B. ISO 27001) und Prüfverfahren beschreibt, um die Sicherheit ihrer Produkte, Dienstleistungen oder Systeme sicherzustellen. Es zeigt das Engagement für eine sichere Umgebung und liefert Nachweise zur Einhaltung und Umsetzung von Sicherheitspraktiken.</t>
+  </si>
+  <si>
+    <t>Systemabbild der Informationssysteme</t>
+  </si>
+  <si>
+    <t>Eine visuelle Darstellung der Komponenten des Informationssystems einer Organisation und ihrer Wechselwirkungen zur Verbesserung von Verwaltung und Sicherheit.</t>
+  </si>
+  <si>
+    <t>Register für privilegierte Zugangskonten</t>
+  </si>
+  <si>
+    <t>Register für Sicherheitsvorfälle</t>
+  </si>
+  <si>
+    <t>Flussmatrix</t>
+  </si>
+  <si>
+    <t>Ein Dokument, das autorisierte Datenflüsse zwischen Systemen, Anwendungen oder Netzwerkanwendungsbereichen abbildet, um eine sichere und regelkonforme Kommunikation sicherzustellen.</t>
+  </si>
+  <si>
+    <t>Grundsätze der Sicherheitsarchitektur</t>
+  </si>
+  <si>
+    <t>Verfahren zum Management privilegierter Zugänge</t>
+  </si>
+  <si>
+    <t>Ein Dokument, das die Prozesse und Kontrollen zur Verwaltung und Sicherung privilegierter Konten beschreibt und sicherstellt, dass nur autorisierte Benutzer Zugang zu kritischen Systemen und Daten haben; einschließlich Maßnahmen wie Monitoring, Audits und zeitlich begrenzten Zugriffsrechten zur Minimierung von Risiken.</t>
+  </si>
+  <si>
+    <t>Verfahren zur Rezertifizierung von Benutzerkonten</t>
+  </si>
+  <si>
+    <t>Ein Dokument, das den Prozess zur regelmäßigen Überprüfung und Validierung von Benutzerzugriffsrechten, Systemzertifizierungen oder der Einhaltung von Standards beschreibt. Es stellt sicher, dass nur autorisierte Benutzer und Systeme Zugriff oder Zertifizierungen behalten und unterstützt dabei, veraltete oder unnötige Berechtigungen zu identifizieren und zu widerrufen.</t>
+  </si>
+  <si>
+    <t>HR-Sicherheitsverfahren</t>
+  </si>
+  <si>
+    <t>Ein Dokument, das Prozesse und Kontrollen zur Verwaltung personalbezogener Sicherheitsaspekte innerhalb der Organisation beschreibt und die Einhaltung gesetzlicher, regulatorischer und sicherheitsrelevanter Standards sicherstellt. Es umfasst Verfahren zu Rekrutierung, Onboarding, Rollenänderungen, Schulungen und Austrittsprozessen, um Informationen und Vermögenswerte der Organisation zu schützen.</t>
+  </si>
+  <si>
+    <t>Physisches Sicherheitsverfahren</t>
+  </si>
+  <si>
+    <t>Zugangskontrolle: Verfahren zur Gewährung, zum Widerruf und zur Überwachung physischen Zugangs zu gesicherten Bereichen.
+Schutz von Vermögenswerten: Richtlinien zum Schutz kritischer Assets (z. B. Server, Speichersysteme).
+Überwachung: Einsatz von Kameras, Alarm- und Überwachungssystemen zur Erkennung und Verhinderung von Sicherheitsverletzungen.
+Besuchermanagement: Richtlinien zur Registrierung und Begleitung von Besuchern in gesicherten Bereichen.
+Reaktion auf Vorfälle: Vorgehensweisen zur Behandlung physischer Sicherheitsvorfälle oder Notfälle.</t>
+  </si>
+  <si>
+    <t>Verfahren für Gruppenrichtlinienobjekte (GPO)</t>
+  </si>
+  <si>
+    <t>Beschreibt, wie Gruppenrichtlinienobjekte erstellt, konfiguriert und verwaltet werden, um Sicherheitseinstellungen, Systemkonfigurationen und Benutzerregeln in einer Windows-Umgebung durchzusetzen. Es stellt eine konsistente Umsetzung organisatorischer Richtlinien für einen sicheren und regelkonformen IT-Betrieb sicher.</t>
+  </si>
+  <si>
+    <t>Verfahren für Update-Management</t>
+  </si>
+  <si>
+    <t>Rollen und Verantwortlichkeiten
+Klassifizierung von Updates
+Planung von Updates
+Tests und Validierung
+Bereitstellungsprozess
+Überwachung und Verifikation
+Dokumentation und Berichterstattung</t>
+  </si>
+  <si>
+    <t>Verfahren zum Incident-Management</t>
+  </si>
+  <si>
+    <t>Praktische Umsetzung der Richtlinie zum Incident-Management</t>
+  </si>
+  <si>
+    <t>Verfahren zur sicheren Entsorgung</t>
+  </si>
+  <si>
+    <t>Rollen und Verantwortlichkeiten
+Identifikation von Assets zur Entsorgung
+Methoden zur sicheren Entsorgung
+Datenbereinigung (Data Sanitization)
+Einhaltung gesetzlicher und regulatorischer Anforderungen
+Dokumentation und Aufbewahrung von Nachweisen
+Verifikation und Audit</t>
+  </si>
+  <si>
+    <t>Verfahren zur Zeitsynchronisation</t>
+  </si>
+  <si>
+    <t>Zeitquelle: Verwendung zuverlässiger externer Quellen (z. B. NTP-Server).
+Konfiguration: Festlegung von Synchronisationsintervallen und Fallback-Mechanismen.
+Überwachung: Regelmäßige Überprüfung des Status der Zeitsynchronisation.</t>
+  </si>
+  <si>
+    <t>Verfahren zur E-Mail-Sicherheitskonfiguration</t>
+  </si>
+  <si>
+    <t>Konfiguration des E-Mail-Servers
+Domänenbasierter E-Mail-Schutz
+Anti-Malware- und Anti-Spam-Kontrollen
+Verschlüsselung und sichere Kommunikation
+Zugriffskontrolle und Überwachung
+Backup und Wiederherstellung
+Sensibilisierung und Schulung der Benutzer</t>
+  </si>
+  <si>
+    <t>Verfahren zum Logging</t>
+  </si>
+  <si>
+    <t>Erfassung und Kategorisierung von Logdaten
+Sichere Speicherung und Aufbewahrungsrichtlinien
+Analyse zur Anomalieerkennung und Incident Response</t>
+  </si>
+  <si>
+    <t>Ziele der Informationssicherheit
+Verpflichtung (Commitment)
+Managementbewertung
+Anwendbare Richtlinien
+Umgang mit Nichtkonformitäten
+Kontinuierliche Verbesserung</t>
+  </si>
+  <si>
+    <t>Richtlinie für Informationssicherheitsbewusstsein und Schulungen</t>
+  </si>
+  <si>
+    <t>Auswirkungen bei Nichteinhaltung
+Meldung von Sicherheitsereignissen
+Kontinuierliche Verbesserung</t>
+  </si>
+  <si>
+    <t>Richtlinie für Arbeitsstationen und Telearbeit</t>
+  </si>
+  <si>
+    <t>Arbeitsstationen
+Mobile Geräte
+Telearbeit
+Passwortverwaltung
+Rückgabe von Assets
+Kontinuierliche Verbesserung</t>
+  </si>
+  <si>
+    <t>Kryptografierichtlinie</t>
+  </si>
+  <si>
+    <t>Schlüsselmanagement
+Verschlüsselung
+Kontinuierliche Verbesserung</t>
+  </si>
+  <si>
+    <t>Richtlinie zur Informationsklassifizierung und -handhabung</t>
+  </si>
+  <si>
+    <t>Klassifizierung
+Schutz und Handhabung von Informationen
+Schutz und Handhabung personenbezogener Daten (PII)
+Clean Desk
+Clean Screen
+Schutz von Aufzeichnungen
+Aufbewahrungsregeln
+Nutzung von Testinformationen
+Kontinuierliche Verbesserung</t>
+  </si>
+  <si>
+    <t>Interne und externe Auditrichtlinie</t>
+  </si>
+  <si>
+    <t>Schutz von Auditinformationen</t>
+  </si>
+  <si>
+    <t>Notfall- und Geschäftskontinuitätsrichtlinie</t>
+  </si>
+  <si>
+    <t>Richtlinie zur Funktionstrennung</t>
+  </si>
+  <si>
+    <t>Zugriffskontrollrichtlinie</t>
+  </si>
+  <si>
+    <t>Identifikation
+Authentifizierung
+Passwortmanagement
+RBAC (rollenbasierte Zugriffskontrolle)
+Überprüfung von Zugriffsrechten
+Provisionierung
+Austritte (Leavers)
+Remote Access
+Management privilegierter Zugänge
+Zugriff durch Dritte
+Überwachung und Berichterstattung
+Kontinuierliche Verbesserung</t>
+  </si>
+  <si>
+    <t>Informationssicherheitsrichtlinie</t>
+  </si>
+  <si>
+    <t>Richtlinie zum Schutz vor Schadsoftware</t>
+  </si>
+  <si>
+    <t>Antivirus
+EDR (Endpoint Detection and Response)</t>
+  </si>
+  <si>
+    <t>Risikomanagement-Richtlinie</t>
+  </si>
+  <si>
+    <t>Definition des Risikomanagements
+Risikobereitschaft (Risk Appetite)
+Kriterien zur Risikoakzeptanz
+Kriterien für die Risikobeurteilung
+Risikoidentifikation
+Risikobeurteilung
+CIAP-Ansatz
+Risikoberichterstattung
+Risikoüberprüfung
+Risikobehandlung (Risikominderung, Akzeptanz, Transfer)
+Risikobewertung
+Verwendung der ISO-27002-Kontrollen
+Verwaltung von Zugriffsrechten
+Kontinuierliche Verbesserung</t>
+  </si>
+  <si>
+    <t>Asset-Management-Richtlinie</t>
+  </si>
+  <si>
+    <t>Richtlinie zur Sicherung von Backups und Wiederherstellung</t>
+  </si>
+  <si>
+    <t>Sicherheitsrichtlinie für Lieferanten und Dritte</t>
+  </si>
+  <si>
+    <t>Richtlinie zu Logging und Monitoring</t>
+  </si>
+  <si>
+    <t>Richtlinie zum Informationsaustausch</t>
+  </si>
+  <si>
+    <t>Richtlinie für sichere Software- und Systementwicklung</t>
+  </si>
+  <si>
+    <t>Physische Sicherheitsrichtlinie</t>
+  </si>
+  <si>
+    <t>Physische Sicherheitsgrenzen
+Sicherheitsbereiche
+Zugangskontrolle für Mitarbeitende
+Zugangskontrolle für Besucher
+Management von Lieferungen
+Sicherung der Verkabelung
+Kontinuierliche Verbesserung</t>
+  </si>
+  <si>
+    <t>Richtlinie zum Management der Netzwerksicherheit</t>
+  </si>
+  <si>
+    <t>Richtlinie zur akzeptablen Nutzung (Acceptable Use Policy)</t>
+  </si>
+  <si>
+    <t>Zielsetzung: Definition der erlaubten und verbotenen Nutzung von Ressourcen.
+Geltungsbereich: Alle Benutzer der Informationssysteme.
+Regeln: Erlaubte und verbotene Aktivitäten, Sicherheitsverpflichtungen.
+Vertraulichkeit: Schutz sensibler Daten.
+Compliance: Überwachung, Sanktionen bei Nichtkonformität.</t>
+  </si>
+  <si>
+    <t>Richtlinie zur Integration von Sicherheit in IS-Projekte</t>
+  </si>
+  <si>
+    <t>Regeln für die Integration von Sicherheitsanforderungen in IS-Projekten</t>
+  </si>
+  <si>
+    <t>Threat-Intelligence-Richtlinie</t>
+  </si>
+  <si>
+    <t>Bekannte ausgenutzte Schwachstellen
+Aktivitäten von Bedrohungsakteuren
+Kontinuierliche Verbesserung</t>
+  </si>
+  <si>
+    <t>Richtlinie zum Management von Sicherheitsvorfällen (IS Incident Management Policy)</t>
+  </si>
+  <si>
+    <t>Klassifizierung von Sicherheitsvorfällen
+Meldung von Sicherheitsvorfällen
+Ablauf zur Incident Response
+Ursachenanalyse und Lessons Learned
+Dokumentation und Kommunikation
+Rollen und Verantwortlichkeiten
+Überprüfung und Aktualisierung</t>
+  </si>
+  <si>
+    <t>Wartungsrichtlinie</t>
+  </si>
+  <si>
+    <t>Management von Obsoleszenz
+Wartungsverträge
+Änderungsmanagement</t>
+  </si>
+  <si>
+    <t>Richtlinie zum Schwachstellenmanagement</t>
+  </si>
+  <si>
+    <t>Erkennung und Management von Schwachstellen
+Patch-Management</t>
+  </si>
+  <si>
+    <t>Schulung zu gesetzlichen und regulatorischen Anforderungen</t>
+  </si>
+  <si>
+    <t>Zielsetzung: Sicherstellung des Bewusstseins für gesetzliche und regulatorische Compliance.
+Zielgruppe: Alle Mitarbeitenden; spezifische Inhalte je nach Rolle.
+Themen: Wichtige Gesetze (z. B. DSGVO), Umgang mit Daten, Risiken bei Nichtkonformität.
+Methoden: E-Learning, Workshops, Fallstudien.
+Bewertung: Tests und szenariobasierte Prüfungen.</t>
+  </si>
+  <si>
+    <t>Schulung zur Bedrohungslage (Threat Landscape Training)</t>
+  </si>
+  <si>
+    <t>Zielsetzung: Verständnis aktueller Cyberbedrohungen und geeigneter Gegenmaßnahmen.
+Zielgruppe: IT-Personal, Sicherheitsteams und Entscheidungsträger.
+Themen: Neue Bedrohungen, Angriffstechniken, Verteidigungsmechanismen.
+Methoden: Präsentationen, Fallstudien, szenariobasierte Diskussionen.
+Ergebnis: Verbesserte Sensibilisierung und Bereitschaft, auf sich entwickelnde Bedrohungen zu reagieren.</t>
+  </si>
+  <si>
+    <t>Schulung zu Identity &amp; Access Management (IAM-Training)</t>
+  </si>
+  <si>
+    <t>Zielsetzung: Identitäts- und Zugriffsmanagement verstehen und sicher beherrschen.
+Zielgruppe: IT-Administratoren, Sicherheitsteams, Access-Manager.
+Themen:
+- Grundkonzepte (Identität, Authentifizierung, Autorisierung, RBAC/ABAC-Modelle)
+- IAM-Best Practices (Rechtemanagement, Provisionierung, Audits)
+- Standards und Werkzeuge (SAML, OAuth, Active Directory usw.)
+Methoden: Praktische Workshops, Use Cases, Demonstrationen.
+Ergebnis: Verbesserte Fähigkeiten zur sicheren und effizienten Verwaltung von Zugriffsrechten.</t>
+  </si>
+  <si>
+    <t>Schulung zur Netzwerksicherheit</t>
+  </si>
+  <si>
+    <t>Zielsetzung: Vermittlung bewährter Verfahren zur Absicherung der Netzwerkinfrastruktur und zur Abwehr von Cyberangriffen.
+Zielgruppe: IT-Administratoren, Netzwerkingenieure, Sicherheitsexperten.
+Themen:
+- Prinzipien der Netzwerksegmentierung
+- Konfiguration und Überwachung von Firewalls
+- Systeme zur Erkennung/Verhinderung von Angriffen (IDS/IPS/NDR)
+- Netzwerksegmentierung und Zugriffskontrolle
+- Sichere Protokolle (z. B. HTTPS, VPN, SSH)
+- Bedrohungsabwehr (z. B. DDoS, Malware)
+Methoden: Interaktive Labore, Simulationen, praktische Übungen.
+Ergebnis: Verbesserte Fähigkeit, Netzwerkumgebungen zu schützen und zu überwachen.</t>
+  </si>
+  <si>
+    <t>Zielsetzung: Aufbau von Fachwissen zur Sicherung von IT-Systemen durch Monitoring, Patch-Management, Compliance und Incident Response.
+Zielgruppe: IT-Sicherheitsfachkräfte, Systemadministratoren, Compliance-Beauftragte und Incident-Response-Teams.
+Themen:
+- Grundprinzipien der Aufrechterhaltung von Sicherheit und deren Bedeutung in der Cybersicherheit.
+- Werkzeuge und Techniken für Sicherheitsmonitoring (z. B. SIEM, IDS).
+- Patch-Management und sichere Systemkonfigurationen.
+- Erkennung von Sicherheitsvorfällen, Planung der Reaktion und Durchführung.
+- Einhaltung von Sicherheitsrichtlinien und regulatorischen Anforderungen.
+Methoden: Praktische Labore, simulierte Szenarien und Fallstudien zur Aufrechterhaltung sicherer Systemzustände.
+Ergebnis: Erweiterte Fähigkeit, IT-Umgebungen kontinuierlich zu sichern, Risiken zu reduzieren und Compliance sicherzustellen.</t>
+  </si>
+  <si>
+    <t>Schulung zu Logging und Monitoring</t>
+  </si>
+  <si>
+    <t>Schulung zur Aufrechterhaltung des sicheren Betriebs (MCS)</t>
+  </si>
+  <si>
+    <t>Security Condition Maintenance Training (SCM)</t>
+  </si>
+  <si>
+    <t>1. Zielsetzung: Vermittlung effektiver Protokollierungs- und Überwachungstechniken zur Verbesserung der Sicherheit und Incident Response.
+2. Zielgruppe: IT-Administratoren, Sicherheitsteams und SOC-Analysten.
+3. Themen:
+   - Bedeutung der Protokollierung und Compliance-Anforderungen.
+   - Konfiguration und Verwaltung von Log-Quellen (z. B. Server, Firewalls, Anwendungen).
+   - Zentrale Logging-Systeme (z. B. SIEM, ELK-Stack).
+   - Erkennung von Anomalien und Analyse von Logdaten.
+   - Incident Response auf Basis von Log-Informationen.
+4. Methoden: Praktische Übungen, realistische Szenarien und Aufgaben zur Log-Analyse.
+5. Ergebnis: Verbesserte Fähigkeit, Logdaten zu erfassen, zu analysieren und sicherheitsrelevante Maßnahmen abzuleiten.</t>
+  </si>
+  <si>
+    <t>Schulung zu Hardening und sicherer Konfiguration</t>
+  </si>
+  <si>
+    <t>Zielsetzung: Vermittlung von Wissen zur Umsetzung sicherer Konfigurationen und zur Härtung von Systemen, um Schwachstellen zu reduzieren.
+Zielgruppe: IT-Administratoren, Systemingenieure, Sicherheitsexperten.
+Themen:
+- Grundprinzipien der Systemhärtung.
+- Härtung von Betriebssystemen (Windows, Linux).
+- Sicherung von Datenbanken (z. B. MySQL, PostgreSQL).
+- Härtung von Netzwerkgeräten (Firewalls, Router, Switches).
+- Anwendung von CIS-Benchmarks und ANSSI-Richtlinien.
+- Werkzeuge für Automatisierung (z. B. Ansible, Puppet, Chef).
+Methoden:
+- Praktische Übungen zur Härtung von Betriebssystemen und Anwendungen.
+- Fallstudien zu Härtungsfehlern und deren Lösungen.
+Ergebnis: Teilnehmende können sichere Konfigurationen implementieren und die allgemeine Systemresilienz verbessern.</t>
+  </si>
+  <si>
+    <t>Eine Funktion, die sicherstellt, dass Geräte oder Benutzer vor der Gewährung von Netzwerkzugang authentifiziert und autorisiert werden. Sie ermöglicht sicheren Zugriff auf kabelgebundene und drahtlose Netzwerke, indem Protokolle wie 802.1X und RADIUS zur Validierung von Anmeldedaten und zur Durchsetzung von Zugriffskontrollrichtlinien verwendet werden.</t>
+  </si>
+  <si>
+    <t>Event-Detection- und Response-Kapazität (EDR)</t>
+  </si>
+  <si>
+    <t>Kapazität für Passwortmanagement</t>
+  </si>
+  <si>
+    <t>Eine Funktion, die die sichere Erstellung, Speicherung, Verwaltung und Nutzung von Passwörtern für Systeme, Anwendungen und Konten ermöglicht. Sie reduziert das Risiko unbefugter Zugriffe durch die Durchsetzung starker Passwortrichtlinien und eine sichere Handhabung von Zugangsdaten.</t>
+  </si>
+  <si>
+    <t>Unified Endpoint Management (UEM) – Fähigkeit</t>
+  </si>
+  <si>
+    <t>Eine Fähigkeit, die zentrale Steuerung und Verwaltung aller Endgeräte ermöglicht, einschließlich Desktop-Systemen, Laptops, Mobilgeräten und IoT-Geräten, über eine einheitliche Plattform. Sie gewährleistet sichere Konfigurationen, Richtlinienerzwingung, Anwendungsverwaltung sowie umfassendes Monitoring der gesamten Endgeräteumgebung einer Organisation.</t>
+  </si>
+  <si>
+    <t>Schutzmaßnahmen für Endgeräte (Antivirus, Firewall und USB-Kontrolle)</t>
+  </si>
+  <si>
+    <t>Integrierte Lösungen zur Absicherung von Endgeräten, einschließlich Antivirus-Schutz, Firewall-Kontrolle und Steuerung der USB-Ports.</t>
+  </si>
+  <si>
+    <t>Festplattenverschlüsselung</t>
+  </si>
+  <si>
+    <t>Vollständige Festplattenverschlüsselung für Arbeitsstationen.</t>
+  </si>
+  <si>
+    <t>Unveränderliche Backup-Kapazität (Immutable Backups)</t>
+  </si>
+  <si>
+    <t>Eine Fähigkeit, die sicherstellt, dass Backups nicht verändert, gelöscht oder überschrieben werden können, um die Datenintegrität gegen Ransomware und unbefugten Zugriff zu schützen.</t>
+  </si>
+  <si>
+    <t>Dateiverschlüsselungs-Kapazität</t>
+  </si>
+  <si>
+    <t>Dateiverschlüsselungswerkzeuge wie 7zip.</t>
+  </si>
+  <si>
+    <t>Configuration Management Database (CMDB)</t>
+  </si>
+  <si>
+    <t>Ein zentrales Repository, das Informationen über IT-Assets, deren Konfigurationen und Beziehungen speichert und verwaltet, um ein effektives IT-Management zu unterstützen.</t>
+  </si>
+  <si>
+    <t>Ein System, das Sicherheitsdaten aus mehreren Quellen sammelt, analysiert und korreliert, um Bedrohungen zu erkennen und darauf zu reagieren.</t>
+  </si>
+  <si>
+    <t>Blickschutzfilter (Screen Filter)</t>
+  </si>
+  <si>
+    <t>Ein physischer oder digitaler Filter, der die Sichtbarkeit von Bildschirminhalten für unbefugte Personen einschränkt und das Risiko visueller Datenlecks reduziert.</t>
+  </si>
+  <si>
+    <t>Netzwerk-Firewall</t>
+  </si>
+  <si>
+    <t>Netzwerk-Antivirus</t>
+  </si>
+  <si>
+    <t>Ein Sicherheitssystem, das auf Basis definierter Regeln eingehenden und ausgehenden Netzwerkverkehr überwacht und steuert.</t>
+  </si>
+  <si>
+    <t>Sicheres Mail-Gateway</t>
+  </si>
+  <si>
+    <t>Ein System, das E-Mail-Kommunikation filtert, überwacht und vor Spam, Malware und unbefugtem Zugriff schützt.</t>
+  </si>
+  <si>
+    <t>Schützt E-Mail- und Web-Verkehr am Netzwerkrand vor Malware.</t>
+  </si>
+  <si>
+    <t>VLANs isolieren und segmentieren Netzwerkverkehr, um Sicherheit und Leistungsfähigkeit zu verbessern.</t>
+  </si>
+  <si>
+    <t>Mikrosegmentierung</t>
+  </si>
+  <si>
+    <t>Eine Sicherheitsstrategie, die fein granulare, kontextbezogene Richtlinien erstellt, um einzelne Workloads oder Anwendungen innerhalb eines Netzwerks zu isolieren, laterale Bewegungen einzuschränken und Sicherheitsvorfälle einzudämmen.</t>
+  </si>
+  <si>
+    <t>WLAN-Sicherheit</t>
+  </si>
+  <si>
+    <t>WLAN-Sicherheit stellt geschützte drahtlose Kommunikation sicher, u. a. durch WPA3-Enterprise-Verschlüsselung, starke Authentifizierung und erweiterte Zugriffskontrollen. Obwohl WPA2-Enterprise weiterhin akzeptabel ist, wird der Umstieg auf WPA3 für erhöhte Sicherheit dringend empfohlen.</t>
+  </si>
+  <si>
+    <t>Ein Reverse Proxy leitet Client-Anfragen an Backend-Server weiter und verbessert dadurch Sicherheit, Lastverteilung und Performance.</t>
+  </si>
+  <si>
+    <t>Eine Web Application Firewall (WAF) schützt Webanwendungen, indem sie HTTP-Datenverkehr filtert und überwacht, um bösartige Aktivitäten zu blockieren.</t>
+  </si>
+  <si>
+    <t>Ein Intrusion Detection System überwacht Netzwerkverkehr, um potenzielle Sicherheitsbedrohungen oder unbefugte Aktivitäten zu erkennen und zu melden.</t>
+  </si>
+  <si>
+    <t>Web-Proxy</t>
+  </si>
+  <si>
+    <t>Ein Web-Proxy filtert und überwacht Web-Verkehr, erzwingt Sicherheitsrichtlinien und unterstützt Benutzer-Authentifizierung zur Kontrolle und Absicherung des Internetzugangs.</t>
+  </si>
+  <si>
+    <t>VPN (Virtual Private Network)</t>
+  </si>
+  <si>
+    <t>Ein Virtual Private Network (VPN) schützt Datenübertragungen durch Verschlüsselung mittels Protokollen wie IPSec und gewährleistet Privatsphäre sowie Schutz vor Abfangversuchen.</t>
+  </si>
+  <si>
+    <t>Multi-Faktor-Authentifizierung (MFA)</t>
+  </si>
+  <si>
+    <t>Die Multi-Faktor-Authentifizierung erhöht die Sicherheit, indem zwei oder mehr Verifizierungsfaktoren aus verschiedenen Kategorien verlangt werden: Wissen (z. B. Passwort), Besitz (z. B. Token oder Smartphone) und Biometrie (z. B. Fingerabdruck oder Gesichtserkennung).</t>
+  </si>
+  <si>
+    <t>© intuitem - 2026</t>
+  </si>
+  <si>
+    <t>Dokumentierter Plan für die Managementbewertung</t>
+  </si>
+  <si>
+    <t>DOC.INCIDENT_REGISTER</t>
+  </si>
+  <si>
+    <t>classification
+Protection and handling of information
+Protection and handling of PII
+clear desk
+clear screen
+Protection of records
+Retention rules
+Use of test information
+Continual improvement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2158,7 +2846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2197,9 +2885,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2499,19 +3190,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="180" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2527,84 +3218,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -2620,26 +3327,26 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2649,673 +3356,808 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="70.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="73.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="70.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="73.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="31.5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="78.75">
+      <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="63">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="157.5">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="110.25">
+      <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
+      <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75">
+      <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="173.25">
+      <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="187" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75">
+      <c r="A9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="I9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75">
+      <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" t="s">
+        <v>538</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="I11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="141.75">
+      <c r="A12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" t="s">
+        <v>541</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="I13" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="78.75">
+      <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="31.5">
+      <c r="A15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="I15" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="63">
+      <c r="A16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
+      <c r="A17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="C17" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="31.5">
+      <c r="A18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="C18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
+      <c r="A19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="C19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="I19" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75">
+      <c r="A20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="C20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="G20" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="I20" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
+      <c r="A21" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="C21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="I21" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="315">
+      <c r="A22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="289" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="C22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="I22" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="141.75">
+      <c r="A23" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="I23" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="47.25">
+      <c r="A24" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="C24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="F24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="I24" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75">
+      <c r="A25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="47.25">
+      <c r="A26" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="C26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="47.25">
+      <c r="A27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="C27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="I27" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75">
+      <c r="A28" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="C28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>167</v>
+      <c r="I28" s="4" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -3329,25 +4171,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3357,334 +4199,408 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="70.85546875" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="86.33203125" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="86.28515625" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="86.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="31.5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="63">
       <c r="A2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="78.75">
+      <c r="A3" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="C3" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="I3" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="78.75">
+      <c r="A4" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="I4" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="157.5">
+      <c r="A5" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="I5" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="63">
+      <c r="A6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="C6" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="I6" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="110.25">
+      <c r="A7" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="C7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="I7" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="78.75">
+      <c r="A8" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="C8" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="110.25">
+      <c r="A9" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="C9" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="I9" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="63">
+      <c r="A10" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="C10" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="I10" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="110.25">
+      <c r="A11" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="C11" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="I11" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="47.25">
+      <c r="A12" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="C12" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="F12" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>359</v>
+      <c r="I12" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -3700,25 +4616,25 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3728,642 +4644,775 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="70.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="70.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="I1" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="94.5">
       <c r="A2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="63">
+      <c r="A3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="94.5">
+      <c r="A4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="I4" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="47.25">
+      <c r="A5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="141.75">
+      <c r="A6" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="I6" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="31.5">
+      <c r="A7" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="I7" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="47.25">
+      <c r="A8" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="31.5">
+      <c r="A9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="I9" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="189">
+      <c r="A10" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="C10" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="I10" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="47.25">
+      <c r="A11" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="C11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="220.5">
+      <c r="A12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="238" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="I12" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="31.5">
+      <c r="A13" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="47.25">
       <c r="A14" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="31.5">
+      <c r="A15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="I15" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="47.25">
+      <c r="A16" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="C16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="I16" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.5">
+      <c r="A17" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="C17" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="I17" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="47.25">
+      <c r="A18" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="C18" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="110.25">
+      <c r="A19" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="I19" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="47.25">
+      <c r="A20" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="C20" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="110.25">
+      <c r="A21" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="I21" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="47.25">
+      <c r="A22" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="C22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="I22" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="47.25">
+      <c r="A23" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="C23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="F23" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="I23" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="110.25">
+      <c r="A24" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="C24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="H24" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="I24" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="47.25">
+      <c r="A25" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="C25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="H25" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="I25" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="47.25">
+      <c r="A26" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="C26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="H26" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I26" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
       <c r="G27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4378,25 +5427,25 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4406,839 +5455,1030 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J12" sqref="B1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="73.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.85546875" customWidth="1"/>
     <col min="8" max="8" width="82" customWidth="1"/>
+    <col min="9" max="9" width="41.42578125" customWidth="1"/>
+    <col min="10" max="10" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="31.5">
       <c r="A1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="110.25">
       <c r="A2" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="I2" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="157.5">
+      <c r="A3" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="F3" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="I3" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="236.25">
+      <c r="A4" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="I4" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="267.75">
+      <c r="A5" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="F5" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="221" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="I5" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="362.25">
+      <c r="A6" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="F6" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="238" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="I6" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="299.25">
+      <c r="A7" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="I7" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="393.75">
+      <c r="A8" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="255" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="I8" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="94.5">
+      <c r="A9" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="D9" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="F9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="I9" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="31.5">
+      <c r="A10" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="C10" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="I10" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="31.5">
+      <c r="A11" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="C11" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="I11" s="12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="94.5">
+      <c r="A12" s="12" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C12" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="F12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="I12" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="110.25">
+      <c r="A13" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="C13" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="F13" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="H13" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="I13" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="47.25">
+      <c r="A14" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="C14" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="I14" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="C15" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="F15" s="13" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="H15" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="I15" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="63">
+      <c r="A16" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="C16" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="H16" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="I16" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
+      <c r="A17" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="C17" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="F17" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="I17" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="63">
+      <c r="A18" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="C18" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="F18" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="H18" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="I18" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="63">
+      <c r="A19" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="C19" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="G19" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="H19" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="I19" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="47.25">
+      <c r="A20" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="C20" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="H20" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="I20" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="47.25">
+      <c r="A21" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="C21" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="H21" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="I21" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="47.25">
+      <c r="A22" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="C22" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="F22" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="I22" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="31.5">
+      <c r="A23" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="G22" s="12" t="s">
+      <c r="C23" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="F23" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="H23" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="I23" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="31.5">
+      <c r="A24" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="C24" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="F24" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="I24" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="78.75">
+      <c r="A25" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="C25" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="F25" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="H25" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="I25" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="110.25">
+      <c r="A26" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="C26" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="H26" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="I26" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="47.25">
+      <c r="A27" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="C27" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="H27" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="13" t="s">
+      <c r="I27" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="47.25">
+      <c r="A28" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="C28" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="F28" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="H28" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="I28" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="47.25">
+      <c r="A29" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="C29" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="H29" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="I29" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="63">
+      <c r="A30" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="C30" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="F30" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="H30" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="I30" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="63">
+      <c r="A31" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="G30" s="12" t="s">
+      <c r="C31" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="F31" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="I31" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="94.5">
+      <c r="A32" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B32" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="C32" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="H31" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="G32" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="H32" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>524</v>
+      <c r="I32" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>682</v>
       </c>
     </row>
   </sheetData>

--- a/tools/excel/intuitem/doc-pol_new.xlsx
+++ b/tools/excel/intuitem/doc-pol_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ciso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thidalgo.INDRA\OneDrive - Indra\Documentos\CISO_ASSISTANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B9D3A5-D92B-4699-B0E0-179179FCBE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAEFAC6-EA65-4123-B562-35BECC95C9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="854">
   <si>
     <t>type</t>
   </si>
@@ -2762,6 +2762,709 @@
 Retention rules
 Use of test information
 Continual improvement</t>
+  </si>
+  <si>
+    <t>name[es]</t>
+  </si>
+  <si>
+    <t>description[es]</t>
+  </si>
+  <si>
+    <t>Documentación, políticas, procedimientos, formación y controles técnicos habituales recomendados por Intuitem</t>
+  </si>
+  <si>
+    <t>Documento de visión general de la organización</t>
+  </si>
+  <si>
+    <t>Documento de contexto de la organización</t>
+  </si>
+  <si>
+    <t>Documento de alcance del SGSI</t>
+  </si>
+  <si>
+    <t>Registro legal</t>
+  </si>
+  <si>
+    <t>Documento de declaración de aplicabilidad</t>
+  </si>
+  <si>
+    <t>Matriz de responsabilidad de los controles</t>
+  </si>
+  <si>
+    <t>Documento del plan de auditoría</t>
+  </si>
+  <si>
+    <t>Matriz de competencias</t>
+  </si>
+  <si>
+    <t>Matriz de responsabilidades</t>
+  </si>
+  <si>
+    <t>Documento del plan de comunicación</t>
+  </si>
+  <si>
+    <t>Registro de riesgos</t>
+  </si>
+  <si>
+    <t>Registro de objetivos de seguridad</t>
+  </si>
+  <si>
+    <t>Documento del plan de revisión por la dirección</t>
+  </si>
+  <si>
+    <t>Registro de formación y concienciación</t>
+  </si>
+  <si>
+    <t>Registro de documentos</t>
+  </si>
+  <si>
+    <t>Registro de procedimientos operativos</t>
+  </si>
+  <si>
+    <t>Registro de no conformidades</t>
+  </si>
+  <si>
+    <t>Documento de normas de funcionamiento</t>
+  </si>
+  <si>
+    <t>Registro de activos</t>
+  </si>
+  <si>
+    <t>Registro de proveedores</t>
+  </si>
+  <si>
+    <t>Plan de concienciación y formación en seguridad de la información</t>
+  </si>
+  <si>
+    <t>Plan de aseguramiento de la seguridad</t>
+  </si>
+  <si>
+    <t>Mapa del sistema de información</t>
+  </si>
+  <si>
+    <t>Registro de cuentas de acceso privilegiado</t>
+  </si>
+  <si>
+    <t>Registro de incidentes de seguridad</t>
+  </si>
+  <si>
+    <t>Matriz de flujos</t>
+  </si>
+  <si>
+    <t>Principios de arquitectura de seguridad</t>
+  </si>
+  <si>
+    <t>Objetivos de la organización
+Organigrama
+Objetivos del SGSI
+Responsabilidades del CISO
+Revisión del SGSI por la dirección</t>
+  </si>
+  <si>
+    <t>Partes interesadas
+Autoridades
+Grupos de interés especial</t>
+  </si>
+  <si>
+    <t>Productos y servicios
+Productos y servicios que requieren certificación
+Ubicaciones
+Vista de la organización
+Vista de la arquitectura de negocio
+Vista de la arquitectura de datos
+Vista de la arquitectura de aplicaciones
+Vista de la arquitectura tecnológica
+Vista de la red
+Declaración de alcance</t>
+  </si>
+  <si>
+    <t>Requisitos legales
+Requisitos estatutarios
+Requisitos reglamentarios
+Requisitos contractuales
+Derechos de propiedad intelectual
+Contratos laborales
+Acuerdos de confidencialidad</t>
+  </si>
+  <si>
+    <t>Contexto de la organización
+Liderazgo
+Planificación
+Soporte
+Operación
+Evaluación del desempeño
+Mejora
+Controles organizativos
+Controles de las personas
+Controles físicos
+Controles tecnológicos</t>
+  </si>
+  <si>
+    <t>RACI para el SGSI</t>
+  </si>
+  <si>
+    <t>Propietario del riesgo
+Impacto
+Probabilidad
+Nivel de riesgo
+Evaluación
+Prioridad
+Opción de tratamiento
+Mitigaciones – medidas de seguridad recomendadas</t>
+  </si>
+  <si>
+    <t>Revisión de riesgos
+Revisión de los objetivos de seguridad
+Revisión de los incidentes de seguridad
+Revisión de la gestión de vulnerabilidades
+Revisión de las no conformidades</t>
+  </si>
+  <si>
+    <t>Normas para la edición y el mantenimiento
+Control de versiones
+Registro
+Mejora continua</t>
+  </si>
+  <si>
+    <t>Lista de no conformidades (incidentes, problemas, …)
+Acción correctiva adoptada</t>
+  </si>
+  <si>
+    <t>Gestión de riesgos</t>
+  </si>
+  <si>
+    <t>Objetivo: Sensibilizar a todos los empleados y proporcionar formación específica al personal pertinente para promover comportamientos seguros, garantizar el cumplimiento y reducir los riesgos.
+Alcance: Concienciación para todos los empleados y contratistas; formación específica para determinados equipos (por ejemplo, TI, seguridad, gestores de accesos).
+Funciones y responsabilidades: Asignar responsabilidades a los equipos de TI, RR. HH. y seguridad.
+Requisitos de formación: Definir los contenidos obligatorios (por ejemplo, gestión de accesos, configuraciones seguras) y la periodicidad (por ejemplo, anual, incorporación).
+Métodos de impartición: Concienciación mediante formación en línea y campañas; formación mediante talleres prácticos y simulaciones.
+Evaluación: Realizar el seguimiento de las tasas de participación, los resultados de los cuestionarios y los resultados de las pruebas de phishing.
+Cumplimiento: Alinear con la normativa (por ejemplo, RGPD, ISO 27001) y mantener registros preparados para auditoría.
+Mejora continua: Actualizar en función de la retroalimentación y de las amenazas emergentes.</t>
+  </si>
+  <si>
+    <t>Documento proporcionado por los proveedores que describe las medidas de seguridad, el cumplimiento de normas (por ejemplo, ISO 27001) y los procedimientos de prueba para garantizar la seguridad de sus productos, servicios o sistemas. Demuestra su compromiso con el mantenimiento de un entorno seguro y proporciona evidencias de cumplimiento y de las prácticas de seguridad.</t>
+  </si>
+  <si>
+    <t>Representación visual de los componentes del sistema de información de una organización y de sus interacciones para mejorar su gestión y seguridad.</t>
+  </si>
+  <si>
+    <t>Documento que mapea los flujos de datos autorizados entre sistemas, aplicaciones o zonas de red para garantizar una comunicación segura y conforme a los requisitos.</t>
+  </si>
+  <si>
+    <t>Procedimiento de gestión de accesos privilegiados</t>
+  </si>
+  <si>
+    <t>Procedimiento de recertificación de cuentas</t>
+  </si>
+  <si>
+    <t>Procedimiento de seguridad física</t>
+  </si>
+  <si>
+    <t>Procedimiento de objetos de directiva de grupo</t>
+  </si>
+  <si>
+    <t>Procedimiento de gestión de actualizaciones</t>
+  </si>
+  <si>
+    <t>Procedimiento de gestión de incidentes</t>
+  </si>
+  <si>
+    <t>Procedimiento de eliminación segura</t>
+  </si>
+  <si>
+    <t>Procedimiento de sincronización horaria</t>
+  </si>
+  <si>
+    <t>Procedimiento de configuración de la seguridad del correo electrónico</t>
+  </si>
+  <si>
+    <t>Procedimiento de registro de eventos</t>
+  </si>
+  <si>
+    <t>Procedimiento de seguridad de RR.HH.</t>
+  </si>
+  <si>
+    <t>Documento que describe los procesos y controles para la gestión y protección de las cuentas privilegiadas, garantizando que únicamente los usuarios autorizados tengan acceso a los sistemas y datos críticos, mediante medidas como la monitorización, la auditoría y el acceso con tiempo limitado para minimizar los riesgos.</t>
+  </si>
+  <si>
+    <t>Documento que define el proceso para la revisión y validación periódicas de los derechos de acceso de los usuarios, las certificaciones de los sistemas o el cumplimiento de normas. Garantiza que solo los usuarios y sistemas autorizados mantengan el acceso o la certificación, y ayuda a identificar y revocar permisos obsoletos o innecesarios.</t>
+  </si>
+  <si>
+    <t>Documento que describe los procesos y controles relacionados con la gestión de los recursos humanos dentro de una organización, garantizando el cumplimiento de los requisitos legales, reglamentarios y de seguridad. Incluye los procedimientos de selección, incorporación, cambios de puesto, formación y finalización de la relación laboral para proteger la información y los activos de la organización.</t>
+  </si>
+  <si>
+    <t>Documento que define cómo crear, configurar y gestionar los GPO para aplicar ajustes de seguridad, configuraciones del sistema y políticas de usuario en un entorno Windows. Garantiza la aplicación coherente de las políticas organizativas para unas operaciones de TI seguras y conformes.</t>
+  </si>
+  <si>
+    <t>Control de accesos: Procedimientos para conceder, revocar y supervisar el acceso físico a las áreas seguras.
+Protección de activos: Directrices para la protección de los activos críticos (por ejemplo, servidores, dispositivos de almacenamiento).
+Vigilancia: Uso de cámaras, alarmas y sistemas de monitorización para detectar y prevenir intrusiones.
+Gestión de visitantes: Políticas para el registro y el acompañamiento de visitantes en áreas seguras.
+Respuesta ante incidentes: Pasos para abordar brechas de seguridad física o situaciones de emergencia.</t>
+  </si>
+  <si>
+    <t>Funciones y responsabilidades
+Clasificación de las actualizaciones
+Planificación de las actualizaciones
+Pruebas y validación
+Proceso de despliegue
+Supervisión y verificación
+Documentación y elaboración de informes</t>
+  </si>
+  <si>
+    <t>Implementación práctica de la política de gestión de incidentes</t>
+  </si>
+  <si>
+    <t>Funciones y responsabilidades
+Identificación de activos para su eliminación
+Métodos de eliminación segura
+Saneado de datos
+Cumplimiento de los requisitos legales y reglamentarios
+Documentación y mantenimiento de registros
+Verificación y auditoría</t>
+  </si>
+  <si>
+    <t>Fuente horaria: Uso de fuentes externas fiables (por ejemplo, servidores NTP).
+Configuración: Definición de intervalos de sincronización y mecanismos de respaldo.
+Supervisión: Verificación periódica del estado de la sincronización horaria.</t>
+  </si>
+  <si>
+    <t>Configuración del servidor de correo electrónico
+Protección del correo electrónico basada en dominios
+Controles antimalware y antispam
+Cifrado y comunicaciones seguras
+Control de accesos y monitorización
+Copia de seguridad y recuperación
+Concienciación y formación de los usuarios</t>
+  </si>
+  <si>
+    <t>Recogida y categorización de registros
+Políticas de almacenamiento seguro y conservación
+Análisis para la detección de anomalías y la respuesta a incidentes</t>
+  </si>
+  <si>
+    <t>Política principal</t>
+  </si>
+  <si>
+    <t>Política de concienciación y formación en seguridad de la información</t>
+  </si>
+  <si>
+    <t>Política de puestos de trabajo y teletrabajo</t>
+  </si>
+  <si>
+    <t>Política criptográfica</t>
+  </si>
+  <si>
+    <t>Política de clasificación y tratamiento de la información</t>
+  </si>
+  <si>
+    <t>Política de auditoría interna y externa</t>
+  </si>
+  <si>
+    <t>Política de continuidad de negocio</t>
+  </si>
+  <si>
+    <t>Política de segregación de funciones</t>
+  </si>
+  <si>
+    <t>Política de control de accesos</t>
+  </si>
+  <si>
+    <t>Política de protección frente a malware</t>
+  </si>
+  <si>
+    <t>Política de gestión de riesgos</t>
+  </si>
+  <si>
+    <t>Política de gestión de activos</t>
+  </si>
+  <si>
+    <t>Política de copia de seguridad y restauración</t>
+  </si>
+  <si>
+    <t>Política de seguridad de proveedores externos</t>
+  </si>
+  <si>
+    <t>Política de registro y monitorización</t>
+  </si>
+  <si>
+    <t>Política de transferencia de la información</t>
+  </si>
+  <si>
+    <t>Política de desarrollo seguro</t>
+  </si>
+  <si>
+    <t>Política de seguridad física</t>
+  </si>
+  <si>
+    <t>Política de gestión de la seguridad de red</t>
+  </si>
+  <si>
+    <t>Política de uso aceptable</t>
+  </si>
+  <si>
+    <t>Política de integración de proyectos de sistemas de información</t>
+  </si>
+  <si>
+    <t>Política de inteligencia de amenazas</t>
+  </si>
+  <si>
+    <t>Política de gestión de incidentes de seguridad de la información</t>
+  </si>
+  <si>
+    <t>Política de mantenimiento</t>
+  </si>
+  <si>
+    <t>Política de gestión de vulnerabilidades</t>
+  </si>
+  <si>
+    <t>Objetivos de seguridad de la información
+Compromiso
+Revisión por la dirección
+Políticas aplicables
+Gestión de las no conformidades
+Mejora continua</t>
+  </si>
+  <si>
+    <t>Implicaciones del incumplimiento
+Notificación de eventos de seguridad
+Mejora continua</t>
+  </si>
+  <si>
+    <t>Puestos de trabajo
+Dispositivos móviles
+Teletrabajo
+Gestión de contraseñas
+Devolución de activos
+Mejora continua</t>
+  </si>
+  <si>
+    <t>Gestión de claves
+Cifrado
+Mejora continua</t>
+  </si>
+  <si>
+    <t>Clasificación
+Protección y tratamiento de la información
+Protección y tratamiento de los datos personales
+Mesa limpia
+Pantalla limpia
+Protección de los registros
+Normas de conservación
+Uso de información de prueba
+Mejora continua</t>
+  </si>
+  <si>
+    <t>Protección de la información de auditoría</t>
+  </si>
+  <si>
+    <t>Identificación
+Autenticación
+Gestión de contraseñas
+RBAC (control de acceso basado en roles)
+Revisión de los derechos de acceso
+Aprovisionamiento
+Bajas de usuarios
+Acceso remoto
+Gestión de accesos privilegiados
+Acceso de terceros
+Supervisión y elaboración de informes
+Mejora continua</t>
+  </si>
+  <si>
+    <t>Antivirus
+EDR</t>
+  </si>
+  <si>
+    <t>Definición de la gestión de riesgos
+Apetito de riesgo
+Criterios de aceptación del riesgo
+Criterios para la evaluación de riesgos
+Identificación de riesgos
+Evaluación de riesgos
+Enfoque CIAP
+Informes de riesgos
+Revisión de riesgos
+Tratamiento del riesgo (mitigación, aceptación, transferencia)
+Evaluación del riesgo
+Uso de los controles de la ISO/IEC 27002
+Gestión de los derechos de acceso
+Mejora continua</t>
+  </si>
+  <si>
+    <t>Registro de eventos</t>
+  </si>
+  <si>
+    <t>Perímetro de seguridad física
+Áreas seguras
+Control de acceso de empleados
+Control de acceso de visitantes
+Gestión de entregas
+Seguridad del cableado
+Mejora continua</t>
+  </si>
+  <si>
+    <t>Objetivo: Definir los usos permitidos y prohibidos de los recursos.
+Alcance: Todos los usuarios de los sistemas de información.
+Normas: Actividades permitidas y prohibidas, obligaciones de seguridad.
+Confidencialidad: Protección de los datos sensibles.
+Cumplimiento: Supervisión y sanciones por incumplimiento.</t>
+  </si>
+  <si>
+    <t>Normas para la integración de la seguridad en los proyectos de sistemas de información</t>
+  </si>
+  <si>
+    <t>Vulnerabilidades conocidas explotadas
+Actividad de actores de amenazas
+Mejora continua</t>
+  </si>
+  <si>
+    <t>Clasificación de incidentes
+Notificación de incidentes
+Proceso de respuesta a incidentes
+Análisis de la causa raíz y lecciones aprendidas
+Documentación y comunicación
+Funciones y responsabilidades
+Revisión y actualización</t>
+  </si>
+  <si>
+    <t>Gestión de la obsolescencia
+Contratos de mantenimiento
+Gestión de cambios</t>
+  </si>
+  <si>
+    <t>Detección y gestión de vulnerabilidades
+Gestión de parches</t>
+  </si>
+  <si>
+    <t>Formación en requisitos legales y reglamentarios</t>
+  </si>
+  <si>
+    <t>Formación sobre el panorama de amenazas</t>
+  </si>
+  <si>
+    <t>Formación en IAM (gestión de identidades y accesos)</t>
+  </si>
+  <si>
+    <t>Formación en seguridad de red</t>
+  </si>
+  <si>
+    <t>Formación en mantenimiento de condiciones de seguridad (SCM)</t>
+  </si>
+  <si>
+    <t>Formación en registro y monitorización</t>
+  </si>
+  <si>
+    <t>Registro de accesos</t>
+  </si>
+  <si>
+    <t>Antivirus de host, cortafuegos y control de USB</t>
+  </si>
+  <si>
+    <t>Base de datos de gestión de la configuración (CMDB)</t>
+  </si>
+  <si>
+    <t>Gestión de información y eventos de seguridad (SIEM)</t>
+  </si>
+  <si>
+    <t>Filtro de pantalla</t>
+  </si>
+  <si>
+    <t>Cortafuegos de red</t>
+  </si>
+  <si>
+    <t>Pasarela de correo seguro</t>
+  </si>
+  <si>
+    <t>Antivirus de red</t>
+  </si>
+  <si>
+    <t>Microsegmentación</t>
+  </si>
+  <si>
+    <t>Seguridad Wi-Fi</t>
+  </si>
+  <si>
+    <t>Proxy inverso</t>
+  </si>
+  <si>
+    <t>Cortafuegos de aplicaciones web (WAF)</t>
+  </si>
+  <si>
+    <t>Sistema de detección de intrusiones (IDS)</t>
+  </si>
+  <si>
+    <t>Autenticación multifactor (MFA)</t>
+  </si>
+  <si>
+    <t>Control de acceso a la red (NAC)(802.1X)</t>
+  </si>
+  <si>
+    <t>Formación en bastionado y configuración segura</t>
+  </si>
+  <si>
+    <t>Gestión de contraseñas</t>
+  </si>
+  <si>
+    <t>Gestión unificada de endpoints</t>
+  </si>
+  <si>
+    <t>Cifrado de discos</t>
+  </si>
+  <si>
+    <t>Copias de seguridad inmutables</t>
+  </si>
+  <si>
+    <t>Cifrado de archivos</t>
+  </si>
+  <si>
+    <t>Detección y respuesta de eventos (EDR)</t>
+  </si>
+  <si>
+    <t>Objetivo: Garantizar la concienciación sobre el cumplimiento de los requisitos legales y reglamentarios.
+Destinatarios: Todos los empleados; adaptado a funciones específicas.
+Contenidos: Principales normativas (por ejemplo, RGPD), tratamiento de datos, riesgos del incumplimiento.
+Métodos: Formación en línea, talleres y estudios de casos.
+Evaluación: Cuestionarios y pruebas basadas en escenarios.</t>
+  </si>
+  <si>
+    <t>Objetivo: Comprender las amenazas cibernéticas actuales y las estrategias de mitigación.
+Destinatarios: Personal de TI, equipos de seguridad y responsables de la toma de decisiones.
+Contenidos: Amenazas emergentes, técnicas de ataque y mecanismos de defensa.
+Métodos: Presentaciones, estudios de casos y debates basados en escenarios.
+Resultado: Mayor concienciación y preparación para hacer frente a amenazas en evolución.</t>
+  </si>
+  <si>
+    <t>Objetivo: Comprender y dominar la gestión de identidades y accesos.
+Destinatarios: Administradores de TI, equipos de seguridad y gestores de accesos.
+Contenidos:
+-Conceptos clave (identidad, autenticación, autorización, modelos RBAC/ABAC).
+-Buenas prácticas de IAM (gestión de derechos, aprovisionamiento, auditorías).
+-Normas y herramientas (SAML, OAuth, Active Directory, etc.).
+Métodos: Talleres prácticos, casos de uso y demostraciones.
+Resultado: Mejora de las capacidades para proteger y gestionar los accesos de forma segura y eficiente.</t>
+  </si>
+  <si>
+    <t>Objetivo: Desarrollar la especialización en el mantenimiento de sistemas de TI seguros mediante la monitorización, la gestión de parches, el cumplimiento y la respuesta a incidentes.
+Destinatarios: Profesionales de seguridad de TI, administradores de sistemas, responsables de cumplimiento y equipos de respuesta a incidentes.
+Contenidos:
+-Principios del mantenimiento de la seguridad y su importancia en la ciberseguridad.
+-Herramientas y técnicas de monitorización de la seguridad (por ejemplo, SIEM, IDS).
+-Gestión de parches y configuraciones seguras de los sistemas.
+-Detección de incidentes, planificación de la respuesta y ejecución.
+-Cumplimiento de las políticas de seguridad y de los requisitos normativos.
+Métodos: Laboratorios prácticos, escenarios simulados y estudios de casos sobre el mantenimiento de las condiciones de seguridad.
+Resultado: Mejora de la capacidad para proteger de forma continua los entornos de TI, mitigar riesgos y garantizar el cumplimiento.</t>
+  </si>
+  <si>
+    <t>Objetivo: Enseñar prácticas eficaces de registro de eventos y técnicas de monitorización para reforzar la seguridad y la respuesta a incidentes.
+Destinatarios: Administradores de TI, equipos de seguridad y analistas de SOC.
+Contenidos:
+-Importancia del registro de eventos y de los requisitos de cumplimiento.
+-Configuración y gestión de las fuentes de registro (por ejemplo, servidores, cortafuegos, aplicaciones).
+-Sistemas centralizados de registro de eventos (por ejemplo, SIEM, pila ELK).
+-Detección de anomalías y análisis de registros.
+-Respuesta a incidentes basada en la información obtenida de los registros.
+Métodos: Laboratorios prácticos, escenarios reales y ejercicios de análisis de registros.
+Resultado: Mejora de la capacidad para recopilar, analizar y actuar sobre los datos de registro con el fin de prevenir y responder a incidentes.</t>
+  </si>
+  <si>
+    <t>Objetivo: Dotar a los participantes de los conocimientos necesarios para implementar configuraciones seguras y bastionar los sistemas con el fin de reducir vulnerabilidades.
+Destinatarios: Administradores de TI, ingenieros de sistemas y profesionales de la seguridad.
+Contenidos:
+-Principios del bastionado de sistemas.
+-Bastionado de sistemas operativos (Windows, Linux).
+-Aseguramiento de bases de datos (por ejemplo, MySQL, PostgreSQL).
+-Bastionado de dispositivos de red (cortafuegos, routers, switches).
+-Aplicación de los CIS Benchmarks y de las directrices de la ANSSI.
+-Herramientas de automatización (por ejemplo, Ansible, Puppet, Chef).
+Métodos:
+-Laboratorios prácticos para el bastionado de sistemas operativos y aplicaciones.
+-Estudios de casos sobre fallos de bastionado y soluciones.
+Resultado: Los participantes adquirirán la capacidad de implementar configuraciones seguras y mejorar la resiliencia global de los sistemas.</t>
+  </si>
+  <si>
+    <t>Mecanismo que aplica a la autenticación y la autorización de dispositivos o usuarios antes de conceder el acceso a la red. Garantiza un acceso seguro a redes cableadas e inalámbricas mediante el uso de protocolos como 802.1X y RADIUS para validar credenciales y aplicar políticas de acceso.</t>
+  </si>
+  <si>
+    <t>Soluciones integradas para la protección de los endpoints, que incluyen antivirus, cortafuegos y control de puertos USB.</t>
+  </si>
+  <si>
+    <t>Cifrado completo de disco para puestos de trabajo.</t>
+  </si>
+  <si>
+    <t>Utilidades de cifrado de archivos como 7zip.</t>
+  </si>
+  <si>
+    <t>Repositorio centralizado que almacena y gestiona información sobre los activos de TI, sus configuraciones y sus relaciones, para apoyar una gestión eficaz de los sistemas de información.</t>
+  </si>
+  <si>
+    <t>Sistema que recopila, analiza y correlaciona datos de seguridad procedentes de múltiples fuentes para detectar y responder a amenazas.</t>
+  </si>
+  <si>
+    <t>Filtro físico o digital que limita la visibilidad de la pantalla a usuarios autorizados, reduciendo el riesgo de brechas de seguridad por observación visual.</t>
+  </si>
+  <si>
+    <t>Sistema de seguridad que supervisa y controla el tráfico de red entrante y saliente en función de reglas predefinidas.</t>
+  </si>
+  <si>
+    <t>Sistema que filtra, supervisa y protege las comunicaciones de correo electrónico frente a spam, malware y accesos no autorizados.</t>
+  </si>
+  <si>
+    <t>Protege el tráfico de correo electrónico y web en el perímetro de red frente a malware.</t>
+  </si>
+  <si>
+    <t>Las VLAN aíslan y segmentan el tráfico de red para reforzar la seguridad y optimizar el rendimiento.</t>
+  </si>
+  <si>
+    <t>La microsegmentación es una estrategia de seguridad que crea políticas granulares y contextuales para aislar cargas de trabajo o aplicaciones individuales dentro de una red, limitando el movimiento lateral y conteniendo las brechas de seguridad.</t>
+  </si>
+  <si>
+    <t>La seguridad Wi-Fi garantiza comunicaciones inalámbricas seguras mediante cifrado WPA3 Enterprise, autenticación robusta y mecanismos avanzados de control de acceso. Aunque WPA2 Enterprise sigue siendo aceptable, se recomienda encarecidamente la transición a WPA3 para una mayor seguridad.</t>
+  </si>
+  <si>
+    <t>Un proxy inverso reenvía las solicitudes de los clientes a los servidores backend, mejorando la seguridad, el equilibrio de carga y el rendimiento.</t>
+  </si>
+  <si>
+    <t>Un cortafuegos de aplicaciones web (WAF) protege las aplicaciones web filtrando y supervisando el tráfico HTTP para bloquear actividades maliciosas.</t>
+  </si>
+  <si>
+    <t>Un sistema de detección de intrusiones (IDS) supervisa el tráfico de red para detectar y alertar sobre posibles amenazas de seguridad o actividades no autorizadas.</t>
+  </si>
+  <si>
+    <t>Un proxy web filtra y supervisa el tráfico web, aplica políticas de seguridad y permite la autenticación de usuarios para controlar y proteger el acceso a Internet.</t>
+  </si>
+  <si>
+    <t>Una red privada virtual (VPN) protege la transmisión de datos mediante el cifrado del tráfico utilizando protocolos como IPsec, garantizando la confidencialidad y la protección frente a interceptaciones.</t>
+  </si>
+  <si>
+    <t>La autenticación multifactor (MFA) refuerza la seguridad al requerir dos factores de verificación de categorías diferentes: algo que sabes (por ejemplo, una contraseña), algo que tienes (por ejemplo, un token o un teléfono móvil) y algo que eres (por ejemplo, una huella dactilar o reconocimiento facial).</t>
+  </si>
+  <si>
+    <t>Capacidad que permite la creación, el almacenamiento, la gestión y el uso seguros de contraseñas para sistemas, aplicaciones y cuentas. Reduce el riesgo de accesos no autorizados mediante la aplicación de políticas de contraseñas robustas y garantizando un tratamiento seguro de las credenciales.</t>
+  </si>
+  <si>
+    <t>Capacidad que proporciona el control y la gestión centralizados de todos los endpoints, incluidos equipos de sobremesa, portátiles, dispositivos móviles y dispositivos IoT, a través de una única plataforma. Garantiza una configuración segura, la aplicación de políticas, la gestión de aplicaciones y la monitorización en todo el ecosistema de endpoints de la organización.</t>
+  </si>
+  <si>
+    <t>Capacidad que garantiza que las copias de seguridad no puedan ser modificadas, eliminadas ni sobrescritas, protegiendo la integridad de los datos frente a ransomware y accesos no autorizados.</t>
+  </si>
+  <si>
+    <t>Objetivo: Enseñar las mejores prácticas para asegurar las infraestructuras de red y prevenir amenazas cibernéticas.
+Destinatarios: Administradores de TI, ingenieros de redes y profesionales de la seguridad.
+Contenidos:
+-Principios de segregación de redes.
+-Configuración y supervisión de cortafuegos.
+-Sistemas de detección y prevención de intrusiones (IDS/IPS/NDR).
+-Segmentación de red y control de accesos.
+-Protocolos seguros (por ejemplo, HTTPS, VPN, SSH).
+-Mitigación de amenazas (por ejemplo, DDoS, malware).
+  Métodos: Laboratorios interactivos, simulaciones y ejercicios prácticos.
+  Resultado: Mejora de la capacidad para proteger y supervisar entornos de red.</t>
+  </si>
+  <si>
+    <t>Controles de referencia de uso común</t>
   </si>
 </sst>
 </file>
@@ -2846,7 +3549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2888,9 +3591,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3190,16 +3902,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="180" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3223,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3312,6 +4024,22 @@
       </c>
       <c r="B14" t="s">
         <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>687</v>
+      </c>
+      <c r="B15" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>688</v>
+      </c>
+      <c r="B16" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -3329,8 +4057,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3356,17 +4084,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K1" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="70.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
@@ -3374,9 +4102,11 @@
     <col min="8" max="8" width="73.140625" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="73.140625" customWidth="1"/>
+    <col min="11" max="11" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3389,7 +4119,7 @@
       <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3398,17 +4128,23 @@
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="78.75">
+      <c r="K1" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="78.75">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -3439,8 +4175,14 @@
       <c r="J2" s="5" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="63">
+      <c r="K2" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="63">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -3471,8 +4213,14 @@
       <c r="J3" s="5" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="157.5">
+      <c r="K3" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="157.5">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
@@ -3503,8 +4251,14 @@
       <c r="J4" s="5" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="110.25">
+      <c r="K4" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="110.25">
       <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
@@ -3535,8 +4289,14 @@
       <c r="J5" s="5" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75">
+      <c r="K5" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -3555,8 +4315,12 @@
       <c r="I6" s="4" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75">
+      <c r="K6" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
@@ -3578,8 +4342,12 @@
       <c r="I7" s="4" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="173.25">
+      <c r="K7" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="173.25">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -3610,8 +4378,14 @@
       <c r="J8" s="5" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75">
+      <c r="K8" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="4" t="s">
         <v>66</v>
       </c>
@@ -3633,8 +4407,12 @@
       <c r="I9" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75">
+      <c r="K9" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -3662,8 +4440,14 @@
       <c r="J10" s="4" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75">
+      <c r="K10" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
@@ -3685,8 +4469,12 @@
       <c r="I11" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="141.75">
+      <c r="K11" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="141.75">
       <c r="A12" s="4" t="s">
         <v>79</v>
       </c>
@@ -3717,8 +4505,14 @@
       <c r="J12" s="5" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75">
+      <c r="K12" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
@@ -3740,8 +4534,12 @@
       <c r="I13" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="78.75">
+      <c r="K13" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="78.75">
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
@@ -3772,8 +4570,14 @@
       <c r="J14" s="5" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="31.5">
+      <c r="K14" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="31.5">
       <c r="A15" s="4" t="s">
         <v>95</v>
       </c>
@@ -3795,8 +4599,12 @@
       <c r="I15" s="4" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="63">
+      <c r="K15" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="63">
       <c r="A16" s="4" t="s">
         <v>99</v>
       </c>
@@ -3827,8 +4635,14 @@
       <c r="J16" s="5" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
+      <c r="K16" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="4" t="s">
         <v>105</v>
       </c>
@@ -3853,8 +4667,12 @@
         <v>548</v>
       </c>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="31.5">
+      <c r="K17" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="31.5">
       <c r="A18" s="4" t="s">
         <v>109</v>
       </c>
@@ -3885,8 +4703,14 @@
       <c r="J18" s="5" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75">
+      <c r="K18" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="4" t="s">
         <v>115</v>
       </c>
@@ -3908,8 +4732,12 @@
       <c r="I19" s="4" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75">
+      <c r="K19" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="4" t="s">
         <v>119</v>
       </c>
@@ -3931,8 +4759,12 @@
       <c r="I20" s="4" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75">
+      <c r="K20" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="4" t="s">
         <v>124</v>
       </c>
@@ -3960,8 +4792,14 @@
       <c r="J21" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="315">
+      <c r="K21" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="346.5">
       <c r="A22" s="4" t="s">
         <v>129</v>
       </c>
@@ -3992,8 +4830,14 @@
       <c r="J22" s="5" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="141.75">
+      <c r="K22" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="141.75">
       <c r="A23" s="4" t="s">
         <v>135</v>
       </c>
@@ -4024,8 +4868,14 @@
       <c r="J23" s="5" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="47.25">
+      <c r="K23" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="47.25">
       <c r="A24" s="4" t="s">
         <v>141</v>
       </c>
@@ -4056,8 +4906,14 @@
       <c r="J24" s="5" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75">
+      <c r="K24" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="4" t="s">
         <v>146</v>
       </c>
@@ -4080,8 +4936,12 @@
       <c r="I25" s="4" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="47.25">
+      <c r="K25" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="47.25">
       <c r="A26" s="4" t="s">
         <v>685</v>
       </c>
@@ -4104,8 +4964,12 @@
       <c r="I26" s="5" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="47.25">
+      <c r="K26" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="47.25">
       <c r="A27" s="4" t="s">
         <v>154</v>
       </c>
@@ -4136,8 +5000,14 @@
       <c r="J27" s="5" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75">
+      <c r="K27" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75">
       <c r="A28" s="4" t="s">
         <v>160</v>
       </c>
@@ -4159,6 +5029,10 @@
       <c r="I28" s="4" t="s">
         <v>565</v>
       </c>
+      <c r="K28" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="L28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4173,7 +5047,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4199,27 +5073,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="F6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K6" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="70.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="37.140625" customWidth="1"/>
     <col min="8" max="8" width="86.28515625" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
     <col min="10" max="10" width="86.28515625" customWidth="1"/>
+    <col min="11" max="11" width="58.42578125" customWidth="1"/>
+    <col min="12" max="12" width="83.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5">
+    <row r="1" spans="1:12" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4232,7 +5108,7 @@
       <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -4241,17 +5117,23 @@
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="63">
+      <c r="K1" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="63">
       <c r="A2" s="4" t="s">
         <v>290</v>
       </c>
@@ -4282,8 +5164,14 @@
       <c r="J2" s="5" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="78.75">
+      <c r="K2" t="s">
+        <v>732</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="94.5">
       <c r="A3" s="4" t="s">
         <v>297</v>
       </c>
@@ -4314,8 +5202,14 @@
       <c r="J3" s="5" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="78.75">
+      <c r="K3" t="s">
+        <v>733</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="94.5">
       <c r="A4" s="4" t="s">
         <v>303</v>
       </c>
@@ -4346,8 +5240,14 @@
       <c r="J4" s="5" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="157.5">
+      <c r="K4" t="s">
+        <v>742</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="157.5">
       <c r="A5" s="4" t="s">
         <v>309</v>
       </c>
@@ -4378,8 +5278,14 @@
       <c r="J5" s="5" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="63">
+      <c r="K5" t="s">
+        <v>734</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="63">
       <c r="A6" s="4" t="s">
         <v>315</v>
       </c>
@@ -4410,8 +5316,14 @@
       <c r="J6" s="5" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="110.25">
+      <c r="K6" t="s">
+        <v>735</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="110.25">
       <c r="A7" s="4" t="s">
         <v>321</v>
       </c>
@@ -4442,8 +5354,14 @@
       <c r="J7" s="5" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="78.75">
+      <c r="K7" t="s">
+        <v>736</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="78.75">
       <c r="A8" s="4" t="s">
         <v>327</v>
       </c>
@@ -4474,8 +5392,14 @@
       <c r="J8" s="5" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="110.25">
+      <c r="K8" t="s">
+        <v>737</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="110.25">
       <c r="A9" s="4" t="s">
         <v>332</v>
       </c>
@@ -4506,8 +5430,14 @@
       <c r="J9" s="5" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="63">
+      <c r="K9" t="s">
+        <v>738</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="63">
       <c r="A10" s="4" t="s">
         <v>338</v>
       </c>
@@ -4538,8 +5468,14 @@
       <c r="J10" s="5" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="110.25">
+      <c r="K10" t="s">
+        <v>739</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="110.25">
       <c r="A11" s="4" t="s">
         <v>344</v>
       </c>
@@ -4570,8 +5506,14 @@
       <c r="J11" s="5" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="47.25">
+      <c r="K11" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="47.25">
       <c r="A12" s="4" t="s">
         <v>350</v>
       </c>
@@ -4601,6 +5543,12 @@
       </c>
       <c r="J12" s="5" t="s">
         <v>587</v>
+      </c>
+      <c r="K12" t="s">
+        <v>741</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -4618,7 +5566,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4644,10 +5592,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K17" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4662,9 +5610,11 @@
     <col min="8" max="8" width="70.28515625" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
     <col min="10" max="10" width="70.28515625" customWidth="1"/>
+    <col min="11" max="11" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="103.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -4695,8 +5645,14 @@
       <c r="J1" s="10" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="94.5">
+      <c r="K1" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="94.5">
       <c r="A2" s="4" t="s">
         <v>165</v>
       </c>
@@ -4727,8 +5683,14 @@
       <c r="J2" s="5" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="63">
+      <c r="K2" t="s">
+        <v>754</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="63">
       <c r="A3" s="4" t="s">
         <v>172</v>
       </c>
@@ -4759,8 +5721,14 @@
       <c r="J3" s="5" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="94.5">
+      <c r="K3" t="s">
+        <v>755</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="94.5">
       <c r="A4" s="4" t="s">
         <v>178</v>
       </c>
@@ -4791,8 +5759,14 @@
       <c r="J4" s="5" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="47.25">
+      <c r="K4" t="s">
+        <v>756</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="47.25">
       <c r="A5" s="4" t="s">
         <v>184</v>
       </c>
@@ -4823,8 +5797,14 @@
       <c r="J5" s="5" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="141.75">
+      <c r="K5" t="s">
+        <v>757</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="141.75">
       <c r="A6" s="4" t="s">
         <v>190</v>
       </c>
@@ -4855,8 +5835,14 @@
       <c r="J6" s="5" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="31.5">
+      <c r="K6" t="s">
+        <v>758</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="31.5">
       <c r="A7" s="4" t="s">
         <v>195</v>
       </c>
@@ -4887,8 +5873,14 @@
       <c r="J7" s="6" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="47.25">
+      <c r="K7" t="s">
+        <v>759</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="47.25">
       <c r="A8" s="4" t="s">
         <v>201</v>
       </c>
@@ -4908,8 +5900,11 @@
       <c r="I8" s="5" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="31.5">
+      <c r="K8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31.5">
       <c r="A9" s="4" t="s">
         <v>204</v>
       </c>
@@ -4931,8 +5926,11 @@
       <c r="I9" s="5" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="189">
+      <c r="K9" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="189">
       <c r="A10" s="4" t="s">
         <v>208</v>
       </c>
@@ -4963,8 +5961,14 @@
       <c r="J10" s="5" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="47.25">
+      <c r="K10" t="s">
+        <v>762</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="47.25">
       <c r="A11" s="4" t="s">
         <v>214</v>
       </c>
@@ -4993,8 +5997,14 @@
       <c r="J11" s="5" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="220.5">
+      <c r="K11" t="s">
+        <v>763</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="220.5">
       <c r="A12" s="4" t="s">
         <v>218</v>
       </c>
@@ -5025,8 +6035,14 @@
       <c r="J12" s="5" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="31.5">
+      <c r="K12" t="s">
+        <v>764</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="31.5">
       <c r="A13" s="4" t="s">
         <v>224</v>
       </c>
@@ -5046,8 +6062,11 @@
       <c r="I13" s="5" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="47.25">
+      <c r="K13" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="47.25">
       <c r="A14" s="4" t="s">
         <v>227</v>
       </c>
@@ -5067,8 +6086,11 @@
       <c r="I14" s="5" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="31.5">
+      <c r="K14" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="31.5">
       <c r="A15" s="4" t="s">
         <v>230</v>
       </c>
@@ -5090,8 +6112,11 @@
       <c r="I15" s="5" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="47.25">
+      <c r="K15" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="47.25">
       <c r="A16" s="4" t="s">
         <v>234</v>
       </c>
@@ -5120,8 +6145,14 @@
         <v>611</v>
       </c>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="31.5">
+      <c r="K16" t="s">
+        <v>768</v>
+      </c>
+      <c r="L16" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="31.5">
       <c r="A17" s="4" t="s">
         <v>240</v>
       </c>
@@ -5143,8 +6174,11 @@
       <c r="I17" s="5" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="47.25">
+      <c r="K17" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="47.25">
       <c r="A18" s="4" t="s">
         <v>244</v>
       </c>
@@ -5164,8 +6198,11 @@
       <c r="I18" s="5" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="110.25">
+      <c r="K18" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="110.25">
       <c r="A19" s="4" t="s">
         <v>247</v>
       </c>
@@ -5196,8 +6233,14 @@
       <c r="J19" s="5" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="47.25">
+      <c r="K19" t="s">
+        <v>771</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="47.25">
       <c r="A20" s="4" t="s">
         <v>252</v>
       </c>
@@ -5217,8 +6260,11 @@
       <c r="I20" s="5" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="110.25">
+      <c r="K20" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="110.25">
       <c r="A21" s="4" t="s">
         <v>255</v>
       </c>
@@ -5249,8 +6295,14 @@
       <c r="J21" s="5" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="47.25">
+      <c r="K21" t="s">
+        <v>773</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="47.25">
       <c r="A22" s="4" t="s">
         <v>261</v>
       </c>
@@ -5281,8 +6333,14 @@
       <c r="J22" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="47.25">
+      <c r="K22" t="s">
+        <v>774</v>
+      </c>
+      <c r="L22" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="47.25">
       <c r="A23" s="4" t="s">
         <v>267</v>
       </c>
@@ -5313,8 +6371,14 @@
       <c r="J23" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="110.25">
+      <c r="K23" t="s">
+        <v>775</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="110.25">
       <c r="A24" s="4" t="s">
         <v>272</v>
       </c>
@@ -5345,8 +6409,14 @@
       <c r="J24" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="47.25">
+      <c r="K24" t="s">
+        <v>776</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="47.25">
       <c r="A25" s="4" t="s">
         <v>278</v>
       </c>
@@ -5377,8 +6447,14 @@
       <c r="J25" s="5" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="47.25">
+      <c r="K25" t="s">
+        <v>777</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="47.25">
       <c r="A26" s="4" t="s">
         <v>284</v>
       </c>
@@ -5409,8 +6485,14 @@
       <c r="J26" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
+      <c r="K26" t="s">
+        <v>778</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
       <c r="G27" s="5"/>
       <c r="I27" s="5"/>
     </row>
@@ -5429,7 +6511,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5455,27 +6537,29 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J12" sqref="B1:J1048576"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K1" sqref="E1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="75.140625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="52.85546875" customWidth="1"/>
     <col min="8" max="8" width="82" customWidth="1"/>
     <col min="9" max="9" width="41.42578125" customWidth="1"/>
     <col min="10" max="10" width="82" customWidth="1"/>
+    <col min="11" max="11" width="53.28515625" customWidth="1"/>
+    <col min="12" max="12" width="83.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
@@ -5506,8 +6590,14 @@
       <c r="J1" s="3" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="110.25">
+      <c r="K1" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="110.25">
       <c r="A2" s="12" t="s">
         <v>356</v>
       </c>
@@ -5538,8 +6628,14 @@
       <c r="J2" s="13" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="157.5">
+      <c r="K2" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="122.25" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>362</v>
       </c>
@@ -5570,8 +6666,14 @@
       <c r="J3" s="13" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="236.25">
+      <c r="K3" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="141.75">
       <c r="A4" s="12" t="s">
         <v>367</v>
       </c>
@@ -5602,8 +6704,14 @@
       <c r="J4" s="13" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="267.75">
+      <c r="K4" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="220.5">
       <c r="A5" s="12" t="s">
         <v>373</v>
       </c>
@@ -5634,8 +6742,14 @@
       <c r="J5" s="13" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="362.25">
+      <c r="K5" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="247.5" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>378</v>
       </c>
@@ -5666,8 +6780,14 @@
       <c r="J6" s="13" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="299.25">
+      <c r="K6" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="220.5">
       <c r="A7" s="12" t="s">
         <v>382</v>
       </c>
@@ -5698,8 +6818,14 @@
       <c r="J7" s="13" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="393.75">
+      <c r="K7" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="240">
       <c r="A8" s="12" t="s">
         <v>388</v>
       </c>
@@ -5730,8 +6856,14 @@
       <c r="J8" s="13" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="94.5">
+      <c r="K8" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="78.75">
       <c r="A9" s="12" t="s">
         <v>394</v>
       </c>
@@ -5762,8 +6894,14 @@
       <c r="J9" s="13" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="31.5">
+      <c r="K9" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="12" t="s">
         <v>400</v>
       </c>
@@ -5785,8 +6923,11 @@
       <c r="I10" s="12" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="31.5">
+      <c r="K10" s="18" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="31.5">
       <c r="A11" s="12" t="s">
         <v>404</v>
       </c>
@@ -5808,8 +6949,11 @@
       <c r="I11" s="12" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="94.5">
+      <c r="K11" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="63">
       <c r="A12" s="12" t="s">
         <v>407</v>
       </c>
@@ -5840,8 +6984,14 @@
       <c r="J12" s="13" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="110.25">
+      <c r="K12" t="s">
+        <v>818</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="78.75">
       <c r="A13" s="12" t="s">
         <v>412</v>
       </c>
@@ -5872,8 +7022,14 @@
       <c r="J13" s="13" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="47.25">
+      <c r="K13" t="s">
+        <v>819</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="31.5">
       <c r="A14" s="12" t="s">
         <v>417</v>
       </c>
@@ -5904,8 +7060,14 @@
       <c r="J14" s="13" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
+      <c r="K14" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="12" t="s">
         <v>423</v>
       </c>
@@ -5936,8 +7098,14 @@
       <c r="J15" s="12" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="63">
+      <c r="K15" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="47.25">
       <c r="A16" s="12" t="s">
         <v>429</v>
       </c>
@@ -5968,8 +7136,14 @@
       <c r="J16" s="13" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
+      <c r="K16" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="12" t="s">
         <v>436</v>
       </c>
@@ -6000,8 +7174,14 @@
       <c r="J17" s="12" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="63">
+      <c r="K17" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="47.25">
       <c r="A18" s="12" t="s">
         <v>441</v>
       </c>
@@ -6032,8 +7212,14 @@
       <c r="J18" s="13" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="63">
+      <c r="K18" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="47.25">
       <c r="A19" s="12" t="s">
         <v>446</v>
       </c>
@@ -6064,8 +7250,14 @@
       <c r="J19" s="13" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="47.25">
+      <c r="K19" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="31.5">
       <c r="A20" s="12" t="s">
         <v>452</v>
       </c>
@@ -6096,8 +7288,14 @@
       <c r="J20" s="13" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="47.25">
+      <c r="K20" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="31.5">
       <c r="A21" s="12" t="s">
         <v>458</v>
       </c>
@@ -6128,8 +7326,14 @@
       <c r="J21" s="13" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="47.25">
+      <c r="K21" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="31.5">
       <c r="A22" s="13" t="s">
         <v>464</v>
       </c>
@@ -6160,8 +7364,14 @@
       <c r="J22" s="13" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="31.5">
+      <c r="K22" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="15" t="s">
         <v>469</v>
       </c>
@@ -6192,8 +7402,14 @@
       <c r="J23" s="13" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="31.5">
+      <c r="K23" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="31.5">
       <c r="A24" s="13" t="s">
         <v>474</v>
       </c>
@@ -6224,8 +7440,14 @@
       <c r="J24" s="13" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="78.75">
+      <c r="K24" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="63">
       <c r="A25" s="12" t="s">
         <v>478</v>
       </c>
@@ -6256,8 +7478,14 @@
       <c r="J25" s="13" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="110.25">
+      <c r="K25" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="63">
       <c r="A26" s="13" t="s">
         <v>483</v>
       </c>
@@ -6288,8 +7516,14 @@
       <c r="J26" s="13" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="47.25">
+      <c r="K26" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="31.5">
       <c r="A27" s="12" t="s">
         <v>489</v>
       </c>
@@ -6320,8 +7554,14 @@
       <c r="J27" s="13" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="47.25">
+      <c r="K27" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="31.5">
       <c r="A28" s="12" t="s">
         <v>495</v>
       </c>
@@ -6352,8 +7592,14 @@
       <c r="J28" s="13" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="47.25">
+      <c r="K28" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="54.75" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>500</v>
       </c>
@@ -6384,8 +7630,14 @@
       <c r="J29" s="13" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="63">
+      <c r="K29" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="47.25">
       <c r="A30" s="13" t="s">
         <v>506</v>
       </c>
@@ -6416,8 +7668,14 @@
       <c r="J30" s="13" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="63">
+      <c r="K30" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="47.25">
       <c r="A31" s="12" t="s">
         <v>511</v>
       </c>
@@ -6448,8 +7706,14 @@
       <c r="J31" s="13" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="94.5">
+      <c r="K31" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="63">
       <c r="A32" s="12" t="s">
         <v>515</v>
       </c>
@@ -6479,6 +7743,12 @@
       </c>
       <c r="J32" s="13" t="s">
         <v>682</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>848</v>
       </c>
     </row>
   </sheetData>
